--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07805F8E-E4D3-44D4-8CF1-ECBBCC89183A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648497E3-3A37-462A-8386-164DCD42D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>Language</t>
   </si>
@@ -385,12 +385,18 @@
   <si>
     <t>remove Numbers From String</t>
   </si>
+  <si>
+    <t>str.endsWith(ending)</t>
+  </si>
+  <si>
+    <t>Check If String Ends With Specific Word</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +733,15 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFC678DD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -771,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,6 +927,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
@@ -1804,6 +1822,17 @@
         <v>106</v>
       </c>
     </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A53:A54"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648497E3-3A37-462A-8386-164DCD42D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12891032-4C16-4B2B-A257-C0553B8E5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>Language</t>
   </si>
@@ -295,12 +295,6 @@
     <t>Check If String Value Is Number Or Text</t>
   </si>
   <si>
-    <t>let numberDigits = Math.abs(number).toString().length;</t>
-  </si>
-  <si>
-    <t>convert number to string and ignore (-)</t>
-  </si>
-  <si>
     <t>stringWord.length - 1</t>
   </si>
   <si>
@@ -390,6 +384,18 @@
   </si>
   <si>
     <t>Check If String Ends With Specific Word</t>
+  </si>
+  <si>
+    <t>return number and ignore (-)</t>
+  </si>
+  <si>
+    <t>let numberDigits = Math.abs(number)</t>
+  </si>
+  <si>
+    <t>let numbers = s.match(/\d+/g); =&gt; return parseInt(numbers.join(""));</t>
+  </si>
+  <si>
+    <t>Get Stringed Numbers From String And Convert It Into Numbers</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,6 +923,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,7 +938,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,17 +1227,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,13 +1597,13 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1632,13 +1641,13 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,168 +1685,187 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B53" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B56" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>108</v>
-      </c>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A49" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12891032-4C16-4B2B-A257-C0553B8E5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C1C76-4A82-40F6-824A-AA4FEB28A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C1C76-4A82-40F6-824A-AA4FEB28A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA077B70-4040-4C76-952A-55ACAA981CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA077B70-4040-4C76-952A-55ACAA981CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5125B-4FD1-430B-8190-48E7DF1007CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5125B-4FD1-430B-8190-48E7DF1007CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE7447E-5DA7-48A0-B8AF-752978948422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
   <si>
     <t>Language</t>
   </si>
@@ -397,12 +397,18 @@
   <si>
     <t>Get Stringed Numbers From String And Convert It Into Numbers</t>
   </si>
+  <si>
+    <t>let result = BigInt(num1) + BigInt(num2);</t>
+  </si>
+  <si>
+    <t>To Sum Big Integer Numbers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +754,15 @@
       <i/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -792,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +954,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,6 +1875,17 @@
       <c r="A58" s="51"/>
       <c r="B58" s="49"/>
       <c r="C58" s="50"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE7447E-5DA7-48A0-B8AF-752978948422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688A8FE-3CD5-4E95-84C0-9327F4EEACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,9 +392,6 @@
     <t>let numberDigits = Math.abs(number)</t>
   </si>
   <si>
-    <t>let numbers = s.match(/\d+/g); =&gt; return parseInt(numbers.join(""));</t>
-  </si>
-  <si>
     <t>Get Stringed Numbers From String And Convert It Into Numbers</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>To Sum Big Integer Numbers</t>
+  </si>
+  <si>
+    <t>let numbers = s.match(/\d+/g);</t>
   </si>
 </sst>
 </file>
@@ -941,6 +941,9 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,9 +957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,20 +1823,20 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
@@ -1861,30 +1861,30 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="50" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
+      <c r="B59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688A8FE-3CD5-4E95-84C0-9327F4EEACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C324D69-7FA6-4C22-A558-BFFCE3CB1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>Language</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>let numbers = s.match(/\d+/g);</t>
+  </si>
+  <si>
+    <t>let isChar = /^[a-zA-Z]+$/.test(character);</t>
+  </si>
+  <si>
+    <t>Return true only if char inside string anything else inside string is false</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,6 +1891,17 @@
       </c>
       <c r="C59" s="16" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C324D69-7FA6-4C22-A558-BFFCE3CB1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE89DB9-C734-43B9-955F-A69CD2E97F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,9 +392,6 @@
     <t>let numberDigits = Math.abs(number)</t>
   </si>
   <si>
-    <t>Get Stringed Numbers From String And Convert It Into Numbers</t>
-  </si>
-  <si>
     <t>let result = BigInt(num1) + BigInt(num2);</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>Return true only if char inside string anything else inside string is false</t>
+  </si>
+  <si>
+    <t>Get Stringed Numbers From String</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,24 +1884,24 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE89DB9-C734-43B9-955F-A69CD2E97F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526431F-C600-49FE-BC5E-1F6CE4531C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Language</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>Get Stringed Numbers From String</t>
+  </si>
+  <si>
+    <t>element.toString(2);</t>
+  </si>
+  <si>
+    <t>Convert Number To Binary Code</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,6 +1908,17 @@
       </c>
       <c r="C60" s="16" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526431F-C600-49FE-BC5E-1F6CE4531C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0996D-C713-4D92-83B5-9F79121C5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0996D-C713-4D92-83B5-9F79121C5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E7A07-7857-49DD-9A71-4C5DBC083C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
   <si>
     <t>Language</t>
   </si>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>Convert Number To Binary Code</t>
+  </si>
+  <si>
+    <t>let specialCharacters = s.match(/[^a-zA-Z0-9]/g);</t>
+  </si>
+  <si>
+    <t>Get Special Characters</t>
+  </si>
+  <si>
+    <t>result += string[i].charCodeAt(0) - 96;</t>
+  </si>
+  <si>
+    <t>Get The Position Of Character</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,6 +1931,28 @@
       </c>
       <c r="C61" s="16" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E7A07-7857-49DD-9A71-4C5DBC083C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B6B6D-0FA2-48B6-BE49-57E277376502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>Language</t>
   </si>
@@ -425,7 +425,13 @@
     <t>result += string[i].charCodeAt(0) - 96;</t>
   </si>
   <si>
-    <t>Get The Position Of Character</t>
+    <t>let char = String.fromCharCode(position + 96);</t>
+  </si>
+  <si>
+    <t>Get The Position Of Character In Alphabetic</t>
+  </si>
+  <si>
+    <t>Get The Character Of Position In Alphabetic</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1958,18 @@
         <v>31</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
         <v>120</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B6B6D-0FA2-48B6-BE49-57E277376502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F547CE0-55EF-4B4A-BC0D-C90B4B025BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
   <si>
     <t>Language</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>Get The Character Of Position In Alphabetic</t>
+  </si>
+  <si>
+    <t> const sqrt = Math.sqrt(n);</t>
+  </si>
+  <si>
+    <t>Get Sqrt Of Number</t>
+  </si>
+  <si>
+    <t>Number.isInteger(sqrt);</t>
+  </si>
+  <si>
+    <t>Check If Number Is Integer</t>
+  </si>
+  <si>
+    <t>result.push(…obj)</t>
+  </si>
+  <si>
+    <t>Push Each Element Of Obj Seperatly</t>
   </si>
 </sst>
 </file>
@@ -837,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,6 +990,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1275,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,20 +1877,20 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="51" t="s">
+      <c r="B53" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="53" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
@@ -1891,20 +1915,20 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="51" t="s">
+      <c r="B57" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="53" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
@@ -1970,6 +1994,39 @@
       </c>
       <c r="C64" s="16" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8A111-1DFE-4282-801E-48E6A8BFB2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE7F3A-9739-4900-8332-1335E61E29D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Builtin Function</t>
   </si>
@@ -352,6 +352,18 @@
   <si>
     <t>Remove special characters &amp; numbers &amp; spaces</t>
   </si>
+  <si>
+    <t>Convert Binary Value To Integer</t>
+  </si>
+  <si>
+    <t>parseInt(joined, 2);</t>
+  </si>
+  <si>
+    <t>integer.toString(2)</t>
+  </si>
+  <si>
+    <t>Convert Integer Value To Binary</t>
+  </si>
 </sst>
 </file>
 
@@ -553,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +626,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -627,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,6 +759,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,8 +774,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,259 +1222,275 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="41"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE7F3A-9739-4900-8332-1335E61E29D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA89A67-ECFB-4029-8AA8-75A1F611A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Builtin Function</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>Sort By Length</t>
-  </si>
-  <si>
-    <t>Calculate Average</t>
-  </si>
-  <si>
-    <t>Sum Of Array / length Of Array</t>
   </si>
   <si>
     <t>let sorted = elements_array.sort((a, b) =&gt; a - b);</t>
@@ -202,18 +196,6 @@
     <t xml:space="preserve">Get The Nth Number </t>
   </si>
   <si>
-    <t>  const xorResult = a ^ b;</t>
-  </si>
-  <si>
-    <t>XOR Gate</t>
-  </si>
-  <si>
-    <t>arr.reverse()</t>
-  </si>
-  <si>
-    <t>Reverse The Array</t>
-  </si>
-  <si>
     <t>let sorted = elements_array.sort((a, b) =&gt; b - a);</t>
   </si>
   <si>
@@ -260,9 +242,6 @@
     <t>To Sum Big Integer Numbers</t>
   </si>
   <si>
-    <t>let numbers = s.match(/\d+/g);</t>
-  </si>
-  <si>
     <t>let isChar = /^[a-zA-Z]+$/.test(character);</t>
   </si>
   <si>
@@ -363,13 +342,37 @@
   </si>
   <si>
     <t>Convert Integer Value To Binary</t>
+  </si>
+  <si>
+    <t>let result = str.replace(/\s+/g, '');</t>
+  </si>
+  <si>
+    <t>remove space in middle from string</t>
+  </si>
+  <si>
+    <t>Let numbers = s.match(/\d+/g);</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Min &amp; Max</t>
+  </si>
+  <si>
+    <t>String To Number Or Number To String</t>
+  </si>
+  <si>
+    <t>Type &amp; Value</t>
+  </si>
+  <si>
+    <t>Math Functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,25 +446,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,33 +455,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,15 +499,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -564,8 +513,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +587,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,46 +657,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -759,25 +732,52 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,16 +1065,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,412 +1085,437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="46"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="43"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="45"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B50" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="B56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="42"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA89A67-ECFB-4029-8AA8-75A1F611A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FE7BC-EDB0-46D2-B219-F7C5977ACE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Builtin Function</t>
   </si>
@@ -112,48 +112,6 @@
     <t>Make Each Letter Of Word Capital</t>
   </si>
   <si>
-    <t>Convert To Binary Number (0 &amp; 1)</t>
-  </si>
-  <si>
-    <r>
-      <t>let</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> binaryConverted = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>num</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.toString(2);</t>
-    </r>
-  </si>
-  <si>
     <t>if (smallChar.indexOf(smallChar[i]) === smallChar.lastIndexOf(smallChar[i]))</t>
   </si>
   <si>
@@ -166,12 +124,6 @@
     <t>Check If String Value Is Number Or Text</t>
   </si>
   <si>
-    <t>stringWord.length - 1</t>
-  </si>
-  <si>
-    <t>length of word - 1</t>
-  </si>
-  <si>
     <t>stringWord[stringWord.length - 1]</t>
   </si>
   <si>
@@ -188,12 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get (Charcater) The Ascii Value </t>
-  </si>
-  <si>
-    <t>  return 2 * (n - 1);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get The Nth Number </t>
   </si>
   <si>
     <t>let sorted = elements_array.sort((a, b) =&gt; b - a);</t>
@@ -230,9 +176,6 @@
     <t>Check If String Ends With Specific Word</t>
   </si>
   <si>
-    <t>return number and ignore (-)</t>
-  </si>
-  <si>
     <t>let numberDigits = Math.abs(number)</t>
   </si>
   <si>
@@ -366,13 +309,37 @@
   </si>
   <si>
     <t>Math Functions</t>
+  </si>
+  <si>
+    <t>let [numberOne, numberTwo] = array.sort((a, b) =&gt; a - b).slice(0, 2);</t>
+  </si>
+  <si>
+    <t>Get Two Lowest Numbers In Array</t>
+  </si>
+  <si>
+    <t>Uppercase &amp; Lowercase</t>
+  </si>
+  <si>
+    <t>Last Element &amp; Last Index</t>
+  </si>
+  <si>
+    <t>Binary &amp; Integer</t>
+  </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>Ascii Value</t>
+  </si>
+  <si>
+    <t>return number and ignore - if number was -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,15 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -438,23 +396,6 @@
       <i/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,15 +448,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -523,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +555,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,146 +589,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,441 +1043,448 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="40"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="46"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="47"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="48"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="46"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="43"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="50"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B55" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="44"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="47"/>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="39" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="B62" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FE7BC-EDB0-46D2-B219-F7C5977ACE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F2B2C-9A5D-4E0A-A7AB-F39F57E6A74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
-  <si>
-    <t>Builtin Function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -194,12 +191,6 @@
     <t>Get Stringed Numbers From String</t>
   </si>
   <si>
-    <t>element.toString(2);</t>
-  </si>
-  <si>
-    <t>Convert Number To Binary Code</t>
-  </si>
-  <si>
     <t>let specialCharacters = s.match(/[^a-zA-Z0-9]/g);</t>
   </si>
   <si>
@@ -218,12 +209,6 @@
     <t>Get The Character Of Position In Alphabetic</t>
   </si>
   <si>
-    <t> const sqrt = Math.sqrt(n);</t>
-  </si>
-  <si>
-    <t>Get Sqrt Of Number</t>
-  </si>
-  <si>
     <t>Number.isInteger(sqrt);</t>
   </si>
   <si>
@@ -333,24 +318,24 @@
   </si>
   <si>
     <t>return number and ignore - if number was -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>Functions &amp; Notes</t>
+  </si>
+  <si>
+    <t>Arrays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,15 +347,6 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,51 +379,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFC678DD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -455,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,12 +401,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,6 +498,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,157 +526,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,452 +973,458 @@
     <col min="2" max="2" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="37"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="38"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="39"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="50"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="B58" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="41"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="36"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="46"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="47"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="48"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="49"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="50"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F2B2C-9A5D-4E0A-A7AB-F39F57E6A74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E93262-1AE5-4597-A1E8-E780E03FC7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Arrays</t>
+  </si>
+  <si>
+    <t>Convert Number To Decimal</t>
+  </si>
+  <si>
+    <t>parseInt(convertToString[i], 10);</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -610,11 +616,44 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,37 +682,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,18 +983,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1004,10 +1013,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1042,10 +1051,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1056,10 +1065,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="44"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1078,10 +1087,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1124,10 +1133,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1162,10 +1171,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="46"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1184,10 +1193,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="47"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1221,210 +1230,218 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="50"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="36"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="37"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="B53" s="48"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B54" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B55" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B56" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B57" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B58" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B59" s="23" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="38"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="39"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="44"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="50"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E93262-1AE5-4597-A1E8-E780E03FC7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728323B6-067B-4484-8369-E059AF2C7985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>parseInt(convertToString[i], 10);</t>
+  </si>
+  <si>
+    <t>for (let i = 0; i &lt;= digits.length - 5; i++) {
+    digitSequence = digits.substring(i, i + 5);
+    arrayOfNumbers.push(digitSequence);
+  }</t>
+  </si>
+  <si>
+    <t>determine length I want</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -637,6 +646,9 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,8 +694,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,10 +1006,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1013,10 +1028,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="43"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1051,10 +1066,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1065,10 +1080,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1087,10 +1102,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1133,10 +1148,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1171,10 +1186,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="47"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1193,10 +1208,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="48"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1234,15 +1249,15 @@
       <c r="A34" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -1261,10 +1276,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -1291,16 +1306,16 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
@@ -1343,92 +1358,117 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="42"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="42"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="42"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="36"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="B53" s="37"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B54" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="48"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="B57" s="49"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B58" s="23" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B63" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A49:B49"/>
+  <mergeCells count="16">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A42:A43"/>
@@ -1439,9 +1479,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728323B6-067B-4484-8369-E059AF2C7985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B9AE7-B684-452E-B729-59EC809AACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>determine length I want</t>
+  </si>
+  <si>
+    <t>return ("+".repeat(integer)+"\n").repeat(integer).trim();</t>
+  </si>
+  <si>
+    <t>repeat thing</t>
   </si>
 </sst>
 </file>
@@ -649,6 +655,24 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,9 +688,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,21 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1012,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1028,10 +1034,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1066,10 +1072,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1080,10 +1086,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1102,10 +1108,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1148,10 +1154,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1186,10 +1192,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1208,10 +1214,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="53"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1254,10 +1260,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -1276,10 +1282,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -1306,7 +1312,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="42" t="s">
@@ -1314,7 +1320,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="42"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1358,7 +1364,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="42" t="s">
@@ -1366,109 +1372,111 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="42"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="42"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="42"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="37"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="B54" s="43"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="49"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="B58" s="37"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B59" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B62" s="23" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B64" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A42:A43"/>
@@ -1479,6 +1487,12 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B9AE7-B684-452E-B729-59EC809AACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94EB12-F728-44C6-8889-9A4F83BEF11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>repeat thing</t>
+  </si>
+  <si>
+    <t>const longestString = result.reduce((longest, str) =&gt; str.length &gt; longest.length ? str : longest, "")</t>
+  </si>
+  <si>
+    <t>Return Biggest Word Length In Array</t>
   </si>
 </sst>
 </file>
@@ -655,6 +661,39 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,40 +709,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1018,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1034,10 +1040,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1072,10 +1078,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1086,10 +1092,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="44"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1108,10 +1114,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1154,10 +1160,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1192,10 +1198,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="46"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1214,10 +1220,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="47"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1260,10 +1266,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="49"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -1282,10 +1288,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="50"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -1312,16 +1318,16 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
@@ -1364,24 +1370,24 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="41"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="41"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="41"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
@@ -1392,91 +1398,105 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="43"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="53"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="37"/>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="B59" s="48"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B61" s="23" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B63" s="23" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B65" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A42:A43"/>
@@ -1487,12 +1507,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94EB12-F728-44C6-8889-9A4F83BEF11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E4FABE-79C0-4E50-B711-30C099F1EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Description</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>Return Biggest Word Length In Array</t>
+  </si>
+  <si>
+    <t>let result = n.toString().replace(/0+$/, "");</t>
+  </si>
+  <si>
+    <t>Remove Zeros At End</t>
   </si>
 </sst>
 </file>
@@ -661,6 +667,27 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,9 +700,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,24 +716,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1024,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1040,10 +1046,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1078,10 +1084,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1092,10 +1098,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1114,10 +1120,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1160,10 +1166,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -1198,10 +1204,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1220,10 +1226,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="53"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1266,10 +1272,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -1288,10 +1294,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -1318,16 +1324,16 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
@@ -1370,24 +1376,24 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
@@ -1406,10 +1412,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
@@ -1436,10 +1442,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="48"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
@@ -1489,14 +1495,16 @@
         <v>52</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A42:A43"/>
@@ -1507,6 +1515,12 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E4FABE-79C0-4E50-B711-30C099F1EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDB46D-2B09-4A60-A14F-8AE6E3AFE042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>numbers.reduce((a, b) =&gt; a ^ b);</t>
-  </si>
-  <si>
-    <t>Get Unique Element From Array</t>
   </si>
   <si>
     <t>sort items But Not Good</t>
@@ -360,6 +357,23 @@
   </si>
   <si>
     <t>Remove Zeros At End</t>
+  </si>
+  <si>
+    <t>Get Number Of  Unique Element From Array</t>
+  </si>
+  <si>
+    <t>let uniqueElements = numList.filter((item, index, array)=&gt; {
+    return array.indexOf(item) === array.lastIndexOf(item);
+  })</t>
+  </si>
+  <si>
+    <t>Get Unique Elements Only That Appear One Time</t>
+  </si>
+  <si>
+    <t>return Math.pow(Math.round(Math.sqrt(n)), 2);</t>
+  </si>
+  <si>
+    <t>Find Nearest Square (prs)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -667,6 +681,45 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,40 +735,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,17 +1037,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1046,17 +1066,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="48"/>
+      <c r="A5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1084,31 +1104,31 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="49"/>
+      <c r="A10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="50"/>
+      <c r="A12" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1120,14 +1140,14 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="45"/>
+      <c r="A15" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
@@ -1154,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1165,362 +1185,378 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="51"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="47"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="52"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>18</v>
-      </c>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="53"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="38"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="51"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="39"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="52"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B40" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B41" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="42"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>47</v>
-      </c>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B47" s="31" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>105</v>
-      </c>
+      <c r="A53" s="54"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="43"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="55"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="B57" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="37"/>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="50"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B64" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="23" t="s">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B67" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDB46D-2B09-4A60-A14F-8AE6E3AFE042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9C183F-7ED0-4275-800B-DDDCB9D50F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Description</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Find Nearest Square (prs)</t>
+  </si>
+  <si>
+    <t>/^[a-zA-Z]+$/.test(str[i])</t>
+  </si>
+  <si>
+    <t>Check If String Is Characters Only Not Numbers Or Special Characters</t>
   </si>
 </sst>
 </file>
@@ -687,6 +693,27 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,9 +726,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,24 +742,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1050,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1066,10 +1072,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1104,10 +1110,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1118,10 +1124,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1140,10 +1146,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1194,10 +1200,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1232,10 +1238,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="54"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1254,10 +1260,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="55"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1300,10 +1306,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="40"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1322,10 +1328,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="41"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1352,16 +1358,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="44"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1404,24 +1410,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="44" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1440,10 +1446,10 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
@@ -1478,10 +1484,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -1539,14 +1545,16 @@
         <v>108</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1557,6 +1565,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9C183F-7ED0-4275-800B-DDDCB9D50F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74567DEB-11DC-47B4-8959-5897AFC38EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Description</t>
   </si>
@@ -197,12 +197,6 @@
     <t>Get Special Characters</t>
   </si>
   <si>
-    <t>result += string[i].charCodeAt(0) - 96;</t>
-  </si>
-  <si>
-    <t>let char = String.fromCharCode(position + 96);</t>
-  </si>
-  <si>
     <t>Get The Position Of Character In Alphabetic</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
   </si>
   <si>
     <t>return str.replace(/[^a-zA-Z]/g, '').split("").reverse().join("");</t>
-  </si>
-  <si>
-    <t>Remove special characters &amp; numbers &amp; spaces</t>
   </si>
   <si>
     <t>Convert Binary Value To Integer</t>
@@ -380,6 +371,27 @@
   </si>
   <si>
     <t>Check If String Is Characters Only Not Numbers Or Special Characters</t>
+  </si>
+  <si>
+    <t>Return text only and Remove special characters &amp; numbers &amp; spaces</t>
+  </si>
+  <si>
+    <t>let incoding = Array(26).fill('0');</t>
+  </si>
+  <si>
+    <t>Dynamic Fill Array</t>
+  </si>
+  <si>
+    <t>result += string[i].charCodeAt(0) - 97;</t>
+  </si>
+  <si>
+    <t>let char = String.fromCharCode(position + 97);</t>
+  </si>
+  <si>
+    <t>incoding[position] = '1';</t>
+  </si>
+  <si>
+    <t>Put With That Position 1</t>
   </si>
 </sst>
 </file>
@@ -1029,21 +1041,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -1051,7 +1063,7 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="46"/>
     </row>
@@ -1073,7 +1085,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="50"/>
     </row>
@@ -1082,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1111,7 +1123,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="51"/>
     </row>
@@ -1120,12 +1132,12 @@
         <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="52"/>
     </row>
@@ -1134,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1147,13 +1159,13 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="47"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
@@ -1180,7 +1192,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1193,15 +1205,15 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="53"/>
     </row>
@@ -1223,7 +1235,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>12</v>
@@ -1231,7 +1243,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>13</v>
@@ -1239,7 +1251,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" s="54"/>
     </row>
@@ -1253,40 +1265,40 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" s="55"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1299,15 +1311,15 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="40"/>
     </row>
@@ -1329,7 +1341,7 @@
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" s="41"/>
     </row>
@@ -1379,18 +1391,18 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1403,18 +1415,18 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,126 +1443,142 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B55" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="45"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="45"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>88</v>
+      <c r="A59" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="39"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>73</v>
-      </c>
+      <c r="A62" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="39"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B66" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="23" t="s">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>115</v>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1565,12 +1593,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74567DEB-11DC-47B4-8959-5897AFC38EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB0C29-0A6A-4E4F-99D8-85DA5FC3C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>Return true only if char inside string anything else inside string is false</t>
   </si>
   <si>
-    <t>Get Stringed Numbers From String</t>
-  </si>
-  <si>
     <t>let specialCharacters = s.match(/[^a-zA-Z0-9]/g);</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
   </si>
   <si>
     <t>Get The Index Of Last Element In Array</t>
-  </si>
-  <si>
-    <t>remove Numbers away From String</t>
   </si>
   <si>
     <t>return str.replace(/[^a-zA-Z]/g, '').split("").reverse().join("");</t>
@@ -392,6 +386,12 @@
   </si>
   <si>
     <t>Put With That Position 1</t>
+  </si>
+  <si>
+    <t>remove Numbers away And Return String</t>
+  </si>
+  <si>
+    <t>Return Stringed Numbers From String</t>
   </si>
 </sst>
 </file>
@@ -705,6 +705,39 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,40 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,17 +1055,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="46"/>
+      <c r="A2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1084,17 +1084,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="50"/>
+      <c r="A5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1122,31 +1122,31 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="52"/>
+      <c r="A12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1158,14 +1158,14 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="47"/>
+      <c r="A15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
@@ -1192,7 +1192,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1205,17 +1205,17 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="53"/>
+      <c r="A22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="47"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1235,7 +1235,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>12</v>
@@ -1243,17 +1243,17 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="54"/>
+      <c r="A27" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1265,40 +1265,40 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="55"/>
+      <c r="A30" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1311,17 +1311,17 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="40"/>
+      <c r="A36" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="41"/>
+      <c r="A39" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="52"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1370,16 +1370,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1391,18 +1391,18 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1415,114 +1415,114 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>99</v>
+      <c r="A50" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="45"/>
+      <c r="A57" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="55"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="39"/>
+      <c r="A63" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="50"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1530,31 +1530,31 @@
         <v>45</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1567,22 +1567,28 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1593,12 +1599,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB0C29-0A6A-4E4F-99D8-85DA5FC3C663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6677FB-66C6-4F36-9248-486AF207F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,6 +705,27 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,9 +738,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,24 +754,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,10 +1062,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1084,10 +1084,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1122,10 +1122,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1136,10 +1136,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1158,10 +1158,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1212,10 +1212,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1250,10 +1250,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="54"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1272,10 +1272,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="55"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1318,10 +1318,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="40"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="41"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1370,16 +1370,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="44"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1422,24 +1422,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="44" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="45"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1512,10 +1512,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="39"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
@@ -1565,30 +1565,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="23" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1599,6 +1593,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6677FB-66C6-4F36-9248-486AF207F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2135F-A7C9-465B-A748-BAE9C6D8C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,12 +311,6 @@
     <t>Arrays</t>
   </si>
   <si>
-    <t>Convert Number To Decimal</t>
-  </si>
-  <si>
-    <t>parseInt(convertToString[i], 10);</t>
-  </si>
-  <si>
     <t>for (let i = 0; i &lt;= digits.length - 5; i++) {
     digitSequence = digits.substring(i, i + 5);
     arrayOfNumbers.push(digitSequence);
@@ -392,6 +386,12 @@
   </si>
   <si>
     <t>Return Stringed Numbers From String</t>
+  </si>
+  <si>
+    <t>num.toString(16)</t>
+  </si>
+  <si>
+    <t>Convert Number To Hex Decimal</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,10 +1311,10 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>55</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>56</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,26 +1443,26 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1497,18 +1497,18 @@
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1567,18 +1567,18 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2135F-A7C9-465B-A748-BAE9C6D8C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2682927B-A317-4CBA-9A33-775D6F3797FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>Description</t>
   </si>
@@ -392,13 +392,19 @@
   </si>
   <si>
     <t>Convert Number To Hex Decimal</t>
+  </si>
+  <si>
+    <t>const regex = /^[0-9]+$/; return regex.test(str);</t>
+  </si>
+  <si>
+    <t>Check If String Is Number only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +456,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -591,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,6 +718,39 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,41 +766,11 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,10 +1078,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1084,10 +1100,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1122,10 +1138,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1136,10 +1152,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1158,10 +1174,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1212,10 +1228,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="47"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1250,10 +1266,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1272,10 +1288,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1318,10 +1334,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1340,10 +1356,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="41"/>
+      <c r="B39" s="52"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1370,16 +1386,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1422,24 +1438,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1466,10 +1482,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="55"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1512,10 +1528,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="50"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
@@ -1581,8 +1597,22 @@
         <v>108</v>
       </c>
     </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1593,12 +1623,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2682927B-A317-4CBA-9A33-775D6F3797FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95E253-B520-4BF4-8B1D-D2F362E0D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -346,9 +346,6 @@
   })</t>
   </si>
   <si>
-    <t>Get Unique Elements Only That Appear One Time</t>
-  </si>
-  <si>
     <t>return Math.pow(Math.round(Math.sqrt(n)), 2);</t>
   </si>
   <si>
@@ -398,6 +395,12 @@
   </si>
   <si>
     <t>Check If String Is Number only</t>
+  </si>
+  <si>
+    <t>Get Unique Elements Only That Appear One Time Using Filter</t>
+  </si>
+  <si>
+    <t>return array.indexOf(item) === array.lastIndexOf(item)</t>
   </si>
 </sst>
 </file>
@@ -718,6 +721,30 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,9 +757,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,27 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,10 +1081,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1100,10 +1103,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1138,10 +1141,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1152,10 +1155,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1174,10 +1177,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1221,17 +1224,17 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1266,10 +1269,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1288,10 +1291,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1327,17 +1330,17 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1356,10 +1359,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1386,16 +1389,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="45"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1407,7 +1410,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>55</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>56</v>
@@ -1438,24 +1441,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1475,17 +1478,17 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="46"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1516,103 +1519,105 @@
         <v>103</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="50"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B65" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="B66" s="23" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="B68" s="23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="56" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1623,6 +1628,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95E253-B520-4BF4-8B1D-D2F362E0D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEF854-1CED-4D97-8D5D-19471D171172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEF854-1CED-4D97-8D5D-19471D171172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD969AB-5984-4482-8A2F-2D03A749481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,6 +724,39 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,40 +772,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1081,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1103,10 +1103,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1141,10 +1141,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1269,10 +1269,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1291,10 +1291,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1337,10 +1337,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1389,16 +1389,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1441,24 +1441,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="44"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="56"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1539,10 +1539,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="51"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
@@ -1618,6 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1628,12 +1634,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD969AB-5984-4482-8A2F-2D03A749481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF026CD7-9025-4A1B-AA9F-E856539BC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,6 +724,27 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,9 +757,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,24 +773,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1081,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1103,10 +1103,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1141,10 +1141,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1269,10 +1269,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1291,10 +1291,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1337,10 +1337,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1389,16 +1389,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="45"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1441,24 +1441,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="46"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1539,10 +1539,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="51"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
@@ -1618,12 +1618,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1634,6 +1628,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF026CD7-9025-4A1B-AA9F-E856539BC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB500BE-DDCC-4023-887A-DC9720E7B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,6 +724,39 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,40 +772,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1081,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1103,10 +1103,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1141,10 +1141,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1269,10 +1269,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1291,10 +1291,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1337,10 +1337,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1389,16 +1389,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
@@ -1441,24 +1441,24 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="44"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="56"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -1539,10 +1539,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="51"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
@@ -1618,6 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A43:A44"/>
@@ -1628,12 +1634,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB500BE-DDCC-4023-887A-DC9720E7B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0C685-920B-47F9-BD17-185DA0746F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>return array.indexOf(item) === array.lastIndexOf(item)</t>
+  </si>
+  <si>
+    <t>!isNaN(str) &amp;&amp; str.trim() !== '';</t>
+  </si>
+  <si>
+    <t>Check If String Is Number Only</t>
   </si>
 </sst>
 </file>
@@ -724,6 +730,27 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,9 +763,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,24 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1103,10 +1109,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1141,10 +1147,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1155,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1177,10 +1183,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1231,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1269,10 +1275,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1291,10 +1297,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1337,10 +1343,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1359,10 +1365,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1373,158 +1379,158 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B43" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B44" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>47</v>
-      </c>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B50" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B51" s="45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="44"/>
-    </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>97</v>
-      </c>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B57" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="56"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="B58" s="46"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B59" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
         <v>103</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>121</v>
@@ -1532,108 +1538,116 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B64" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="51"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="B65" s="40"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B66" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B67" s="23" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B73" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B74" s="23" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0C685-920B-47F9-BD17-185DA0746F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05462C62-6B93-43D5-B55D-AFFE4E0A8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,6 +730,39 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,40 +778,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1147,10 +1147,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1161,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1183,10 +1183,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1237,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1297,10 +1297,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1343,10 +1343,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1403,16 +1403,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1455,24 +1455,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1499,10 +1499,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="56"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="51"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1632,6 +1632,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1642,12 +1648,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05462C62-6B93-43D5-B55D-AFFE4E0A8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692EC61-BCF8-4CC8-B8E3-8C6A289EF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,6 +730,27 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,9 +763,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,24 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1147,10 +1147,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1161,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1183,10 +1183,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1237,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1297,10 +1297,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1343,10 +1343,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1403,16 +1403,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1455,24 +1455,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1499,10 +1499,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="46"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="51"/>
+      <c r="B65" s="40"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1632,12 +1632,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1648,6 +1642,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692EC61-BCF8-4CC8-B8E3-8C6A289EF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D13872-3561-481D-AA27-0B722B37CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <t>Dynamic Fill Array</t>
   </si>
   <si>
-    <t>result += string[i].charCodeAt(0) - 97;</t>
-  </si>
-  <si>
     <t>let char = String.fromCharCode(position + 97);</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>Check If String Is Number Only</t>
+  </si>
+  <si>
+    <t>result += string[i].charCodeAt(0) - 97 + 1;</t>
   </si>
 </sst>
 </file>
@@ -730,6 +730,39 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,40 +778,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1147,10 +1147,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1161,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1183,10 +1183,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1237,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1297,10 +1297,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1336,17 +1336,17 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1380,10 +1380,10 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1403,16 +1403,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>55</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>56</v>
@@ -1455,24 +1455,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1492,17 +1492,17 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="56"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1533,15 +1533,15 @@
         <v>103</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="51"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1571,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1624,14 +1624,20 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1642,12 +1648,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D13872-3561-481D-AA27-0B722B37CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843CAE21-6C67-4777-9972-7C86E4904121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,6 +730,27 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,9 +763,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,24 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1147,10 +1147,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1161,10 +1161,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1183,10 +1183,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1237,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1297,10 +1297,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1343,10 +1343,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1403,16 +1403,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1455,24 +1455,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1499,10 +1499,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="46"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="51"/>
+      <c r="B65" s="40"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1632,12 +1632,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1648,6 +1642,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843CAE21-6C67-4777-9972-7C86E4904121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5A5AB-15F2-4531-9B02-F6EF093718D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>Description</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>result += string[i].charCodeAt(0) - 97 + 1;</t>
+  </si>
+  <si>
+    <t>element.replace(/[aeiouAEIOU]/g, "");</t>
+  </si>
+  <si>
+    <t>Remove Vowels From String</t>
   </si>
 </sst>
 </file>
@@ -730,6 +736,39 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,40 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1093,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1109,10 +1115,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1147,10 +1153,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1161,10 +1167,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1183,10 +1189,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1237,10 +1243,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1275,10 +1281,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1297,10 +1303,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1343,10 +1349,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1365,10 +1371,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1403,16 +1409,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1455,24 +1461,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1499,10 +1505,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="56"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1553,10 +1559,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="51"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1630,8 +1636,22 @@
         <v>119</v>
       </c>
     </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1642,12 +1662,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5A5AB-15F2-4531-9B02-F6EF093718D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F4DBB-E9BF-4D99-8B6C-8D7FF823B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t>Remove Vowels From String</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Get Keys Of Object</t>
+  </si>
+  <si>
+    <t>Object.keys(object)</t>
+  </si>
+  <si>
+    <t>Get Length Of Object</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +615,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAB85AB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,6 +760,27 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,9 +793,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,23 +811,14 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,6 +828,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAB85AB"/>
       <color rgb="FF6FCA56"/>
     </mruColors>
   </colors>
@@ -1072,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,10 +1127,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1115,10 +1149,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1153,10 +1187,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1167,10 +1201,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1189,10 +1223,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1243,10 +1277,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -1281,10 +1315,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1303,10 +1337,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -1349,10 +1383,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -1371,10 +1405,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
@@ -1409,16 +1443,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -1461,24 +1495,24 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1505,10 +1539,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="46"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -1559,10 +1593,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="51"/>
+      <c r="B65" s="40"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -1644,14 +1678,31 @@
         <v>126</v>
       </c>
     </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="57"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
+  <mergeCells count="17">
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A44:A45"/>
@@ -1662,6 +1713,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F4DBB-E9BF-4D99-8B6C-8D7FF823B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14589644-4469-43E5-80FD-3E21526EA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>Description</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>Get Length Of Object</t>
+  </si>
+  <si>
+    <t>names.sort((a, b) =&gt; a.toLowerCase().localeCompare(b.toLowerCase()));</t>
+  </si>
+  <si>
+    <t>Sort sensitive Cases</t>
   </si>
 </sst>
 </file>
@@ -760,6 +766,48 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,50 +823,8 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,10 +1133,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1149,10 +1155,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1186,399 +1192,399 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="52"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="49"/>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="53"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="50"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="48"/>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="54"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="B23" s="51"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="55"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="56"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="B31" s="53"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B36" s="36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="41"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="B37" s="55"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="42"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="B40" s="56"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B41" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B43" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B44" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B45" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="45"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>47</v>
-      </c>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B49" s="31" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B51" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B52" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
-    </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="47"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="47"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>97</v>
-      </c>
+      <c r="A55" s="58"/>
+      <c r="B55" s="47"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B58" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="46"/>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="B59" s="59"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B62" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
         <v>103</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>121</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>120</v>
@@ -1586,139 +1592,147 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B65" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="40"/>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="B66" s="54"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B67" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B68" s="23" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B70" s="23" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B74" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B75" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
+    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="57"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+      <c r="B77" s="42"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B78" s="41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B79" s="41" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14589644-4469-43E5-80FD-3E21526EA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A9F19-A206-4E11-821C-77B3592109D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>Sort sensitive Cases</t>
+  </si>
+  <si>
+    <t>nums.sort((a, b)=&gt; (a + b) - (b + a));</t>
+  </si>
+  <si>
+    <t>sort stringed Numbers To Get High Numbers</t>
   </si>
 </sst>
 </file>
@@ -649,12 +655,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,6 +775,9 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,9 +1115,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1125,10 +1128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1139,10 +1142,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1150,7 +1153,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1161,364 +1164,368 @@
       <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="49"/>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="49"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="50"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="51"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="B24" s="51"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="52"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="52"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="53"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="55"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="B38" s="55"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="56"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="B41" s="56"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B46" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B53" s="47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="47"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
@@ -1529,210 +1536,214 @@
       <c r="B55" s="47"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="47"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="59"/>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="B60" s="41"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="54"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="B67" s="54"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B70" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B73" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B75" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="42" t="s">
+    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="42"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
+      <c r="B78" s="42"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B79" s="40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B80" s="40" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A9F19-A206-4E11-821C-77B3592109D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB240A0-0F20-4726-AFDC-0B8B8023CACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,6 +775,9 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,9 +794,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1136,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1248,10 +1248,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1468,16 +1468,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="41"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1523,21 +1523,21 @@
       <c r="A53" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
-      <c r="B54" s="47"/>
+      <c r="B54" s="41"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="41"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="41"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1564,10 +1564,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="41"/>
+      <c r="B60" s="42"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
@@ -1704,10 +1704,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
@@ -1727,6 +1727,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A78:B78"/>
@@ -1743,7 +1744,6 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB240A0-0F20-4726-AFDC-0B8B8023CACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEBAB5F-FA2A-4A6C-8673-7372FCB1114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>Description</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>sort stringed Numbers To Get High Numbers</t>
+  </si>
+  <si>
+    <t>string.replace(/[^a-zA-Z0-9]/g, "")</t>
+  </si>
+  <si>
+    <t>Remove Spaces And Special Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const mid = Math.floor(string.length / 2);</t>
+  </si>
+  <si>
+    <t>Get Medium Character In String</t>
   </si>
 </sst>
 </file>
@@ -775,6 +787,15 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,15 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1148,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1158,10 +1170,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1212,10 +1224,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1226,10 +1238,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1248,10 +1260,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1302,10 +1314,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1340,10 +1352,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1362,10 +1374,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1408,10 +1420,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="58"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1430,10 +1442,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="41"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1468,16 +1480,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="44"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1520,24 +1532,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1564,46 +1576,46 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="42"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="B61" s="45"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B62" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B63" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B64" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
         <v>103</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>121</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>120</v>
@@ -1611,126 +1623,138 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B67" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="54"/>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="B68" s="57"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B69" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B70" s="22" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B76" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B77" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B78" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="43" t="s">
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="43"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="B80" s="46"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B81" s="40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B82" s="40" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1741,9 +1765,13 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEBAB5F-FA2A-4A6C-8673-7372FCB1114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A1938-5C59-4750-8D4C-4B3F28F5128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,6 +787,42 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,49 +832,13 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1148,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1170,10 +1170,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1238,10 +1238,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1314,10 +1314,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1352,10 +1352,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1374,10 +1374,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1420,10 +1420,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="58"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1442,10 +1442,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1480,16 +1480,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1532,24 +1532,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1584,10 +1584,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1638,10 +1638,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
@@ -1732,10 +1732,10 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="46"/>
+      <c r="B80" s="57"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
@@ -1755,6 +1755,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1767,11 +1772,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A1938-5C59-4750-8D4C-4B3F28F5128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E9D9A-7262-4A6C-9E35-64525EF8F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,6 +787,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,9 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,21 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1148,10 +1148,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1170,10 +1170,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1238,10 +1238,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1314,10 +1314,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1352,10 +1352,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1374,10 +1374,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1420,10 +1420,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1442,10 +1442,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1480,16 +1480,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1532,24 +1532,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1584,10 +1584,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1638,10 +1638,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="58"/>
+      <c r="B68" s="46"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
@@ -1732,10 +1732,10 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="45"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
@@ -1755,11 +1755,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1772,6 +1767,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E9D9A-7262-4A6C-9E35-64525EF8F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F16F00-7CCC-415A-B5B6-246482204BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -449,6 +449,13 @@
   </si>
   <si>
     <t>Get Medium Character In String</t>
+  </si>
+  <si>
+    <t>let index = (goose - 1) % players.length;
+  return players[index].name;</t>
+  </si>
+  <si>
+    <t>Get Dynamic Position In Circles</t>
   </si>
 </sst>
 </file>
@@ -787,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1170,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1224,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1238,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1260,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1314,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1352,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1374,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1420,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1442,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1480,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1532,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1584,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1637,124 +1644,137 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="46"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="B69" s="58"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B70" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B71" s="22" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B77" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B78" s="22" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B80" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="45" t="s">
+    <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="45"/>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B82" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="40" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1767,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F16F00-7CCC-415A-B5B6-246482204BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635A0A2-31EE-44D6-A413-61B62652D28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635A0A2-31EE-44D6-A413-61B62652D28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA3099-CE52-4871-9F55-3CEB80EB6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA3099-CE52-4871-9F55-3CEB80EB6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA911DF-EE98-4BBB-9F37-E1DF0438EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA911DF-EE98-4BBB-9F37-E1DF0438EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847FB79-6306-4626-8306-6ED51E2760C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847FB79-6306-4626-8306-6ED51E2760C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C704E518-4FFA-4253-84D4-4EB475EE262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C704E518-4FFA-4253-84D4-4EB475EE262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E11B3-18EB-45DF-9BC4-4025F465F7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E11B3-18EB-45DF-9BC4-4025F465F7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946C2FF-68B8-4B81-973E-C684AFF196E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946C2FF-68B8-4B81-973E-C684AFF196E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12894748-9DBB-4438-9F08-F5AFD9AFEE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12894748-9DBB-4438-9F08-F5AFD9AFEE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D031EE-35B9-4B29-A2A7-0DE893643071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D031EE-35B9-4B29-A2A7-0DE893643071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D18FF3-0FE5-41AD-AF90-53FBEB09EAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D18FF3-0FE5-41AD-AF90-53FBEB09EAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED4766C-840C-48CB-9AC4-5B21812FA247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED4766C-840C-48CB-9AC4-5B21812FA247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C84C6-DFB9-4477-9C7E-1354AFFB262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C84C6-DFB9-4477-9C7E-1354AFFB262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0182D730-D80B-43A2-A218-FEE73FD1CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0182D730-D80B-43A2-A218-FEE73FD1CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF07C6F-1581-4CD5-B8B6-B46AA7279476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF07C6F-1581-4CD5-B8B6-B46AA7279476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1CDC10-5779-4265-89A4-276899406F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="50"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="58"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1CDC10-5779-4265-89A4-276899406F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62350279-205A-4D43-B672-2FEEC08FE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,24 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,21 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1177,10 +1177,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1267,10 +1267,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -1359,10 +1359,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1427,10 +1427,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -1449,10 +1449,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
@@ -1487,16 +1487,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1539,24 +1539,24 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -1653,10 +1653,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="58"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
@@ -1747,10 +1747,10 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -1770,11 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1787,6 +1782,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code & Notes/Functions & Notes.xlsx
+++ b/Code & Notes/Functions & Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Courses\Web Development\Problem Solving\Code &amp; Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62350279-205A-4D43-B672-2FEEC08FE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91DA777-0C1A-4DC7-AE3D-C088F09C8C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -794,15 +794,51 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,42 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,17 +1136,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="47"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="41"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="51"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="46"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>133</v>
       </c>
@@ -1230,13 +1230,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="52"/>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+    </row>
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1244,13 +1244,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="53"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1266,13 +1266,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>104</v>
       </c>
@@ -1320,13 +1320,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="54"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>66</v>
       </c>
@@ -1358,13 +1358,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="55"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>68</v>
       </c>
@@ -1380,13 +1380,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="56"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>72</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>73</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>117</v>
       </c>
@@ -1426,13 +1426,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="57"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>35</v>
       </c>
@@ -1448,13 +1448,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
         <v>122</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>31</v>
       </c>
@@ -1486,19 +1486,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="43"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>46</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>124</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>111</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>75</v>
       </c>
@@ -1538,27 +1538,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="55"/>
+      <c r="B54" s="45"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="55"/>
+      <c r="B55" s="45"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="55"/>
+      <c r="B56" s="45"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>96</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>98</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>112</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>137</v>
       </c>
@@ -1590,13 +1590,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="44"/>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="56"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>61</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>59</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>83</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="36" t="s">
         <v>103</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="36" t="s">
         <v>121</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="36" t="s">
         <v>109</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="36" t="s">
         <v>139</v>
       </c>
@@ -1652,13 +1652,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+    <row r="69" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="46"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="58"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="21" t="s">
         <v>75</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="21" t="s">
         <v>53</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="21" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
         <v>100</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
         <v>106</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
         <v>118</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
         <v>125</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
         <v>135</v>
       </c>
@@ -1746,13 +1746,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
+    <row r="81" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="45"/>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="57"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
         <v>129</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
         <v>129</v>
       </c>
@@ -1770,6 +1770,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A46:A47"/>
@@ -1782,11 +1787,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
